--- a/pabi_trial_balance_extension/xlsx_template/nstda.xlsx
+++ b/pabi_trial_balance_extension/xlsx_template/nstda.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t xml:space="preserve">Trial Balance for GFMIS</t>
+    <t xml:space="preserve">Trial Balance for NSTDA</t>
   </si>
   <si>
     <t xml:space="preserve">Fiscal Year:</t>
@@ -311,7 +311,7 @@
   <dimension ref="A1:AMJ5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
